--- a/class6/敏感词.xlsx
+++ b/class6/敏感词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\明远启航Python课\class6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B32B2-803C-4EDF-B867-BF4474786187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209AED2-36DF-4F17-9F9F-13F836EBEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2520" windowWidth="10920" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13730" yWindow="1270" windowWidth="10400" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>jiangge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感词汇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,66 +397,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
